--- a/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,1</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,22</t>
+          <t>22,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,52</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>104,44%</t>
+          <t>66,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>104,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 23,81</t>
+          <t>6,83; 16,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,31; 44,94</t>
+          <t>16,22; 30,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 30,01</t>
+          <t>12,82; 25,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 12,98</t>
+          <t>19,91; 44,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,3; 85,18</t>
+          <t>33,25; 121,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,96; 187,89</t>
+          <t>40,72; 101,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,26; 96,95</t>
+          <t>39,86; 98,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,63; 112,76</t>
+          <t>46,87; 188,1</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>25,09</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>11,77</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,33</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>135,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,75%</t>
+          <t>41,6%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 12,95</t>
+          <t>5,48; 9,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 16,68</t>
+          <t>12,03; 48,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 26,77</t>
+          <t>5,52; 12,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,06</t>
+          <t>5,98; 16,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 60,87</t>
+          <t>43,37; 93,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 64,3</t>
+          <t>55,41; 345,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,07; 123,67</t>
+          <t>24,03; 60,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,34; 89,08</t>
+          <t>18,63; 63,91</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>12,63</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>60,92%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50,06%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>5,68%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,78%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>45,59%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 10,5</t>
+          <t>0,72; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,81</t>
+          <t>6,72; 18,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,53</t>
+          <t>2,79; 11,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,53</t>
+          <t>-4,17; 6,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 81,61</t>
+          <t>6,75; 99,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 30,03</t>
+          <t>26,24; 101,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,45; 83,83</t>
+          <t>16,06; 96,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 94,43</t>
+          <t>-14,89; 29,05</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>23,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>65,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>112,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>40,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,2</t>
+          <t>5,73; 8,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 14,8</t>
+          <t>15,4; 40,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 23,61</t>
+          <t>7,6; 12,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,02</t>
+          <t>7,63; 15,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,19; 61,5</t>
+          <t>47,49; 85,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 57,07</t>
+          <t>64,71; 231,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,55; 100,96</t>
+          <t>34,27; 62,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,68; 81,17</t>
+          <t>25,43; 59,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 16,97</t>
+          <t>5,25; 15,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 30,04</t>
+          <t>15,39; 29,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 44,57</t>
+          <t>19,59; 44,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,25; 121,77</t>
+          <t>25,28; 105,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,72; 101,98</t>
+          <t>38,83; 102,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,87; 188,1</t>
+          <t>46,25; 181,88</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,2%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,94</t>
+          <t>5,83; 9,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 48,07</t>
+          <t>13,19; 50,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 16,63</t>
+          <t>6,55; 16,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,37; 93,24</t>
+          <t>48,8; 97,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,41; 345,14</t>
+          <t>59,1; 369,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 63,91</t>
+          <t>21,95; 65,03</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,95</t>
+          <t>1,54; 6,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 18,01</t>
+          <t>6,86; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 6,66</t>
+          <t>-3,71; 6,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 99,99</t>
+          <t>17,16; 125,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 101,68</t>
+          <t>26,86; 101,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 29,05</t>
+          <t>-13,18; 30,15</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,35%</t>
+          <t>67,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 8,95</t>
+          <t>5,72; 8,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 40,43</t>
+          <t>15,83; 40,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 15,09</t>
+          <t>7,31; 15,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,49; 85,75</t>
+          <t>49,51; 88,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,71; 231,58</t>
+          <t>66,85; 255,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,43; 59,15</t>
+          <t>23,72; 57,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DOL-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>22,31</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33,51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18,49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>10,65</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>33,51</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>64,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>104,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>64,68%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>57,55%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>66,26%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>64,68%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>104,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>15,01; 28,75</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19,59; 44,38</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 25,05</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>5,25; 15,86</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>15,39; 29,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,82; 25,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 44,38</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>38,31; 98,26</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>46,25; 181,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39,86; 98,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>25,28; 105,54</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>38,83; 102,99</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>39,86; 98,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>46,25; 181,88</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>13,27</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11,77</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,86</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>25,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>60,25%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>71,21%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>135,42%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>39,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>41,6%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9,67; 17,06</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 16,57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 12,01</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>5,83; 9,9</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>13,19; 50,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 12,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 16,57</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>40,22; 85,88</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 65,03</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 60,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>48,8; 97,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>59,1; 369,91</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>24,03; 60,57</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>21,95; 65,03</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>60,49%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50,06%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>59,97%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,92%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6,63; 17,51</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 6,71</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 11,46</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>1,54; 6,71</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 17,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 11,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 6,71</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>26,21; 100,96</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 30,15</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 96,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>17,16; 125,27</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>26,86; 101,73</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>16,06; 96,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-13,18; 30,15</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>15,77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11,28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10,04</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,27</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>23,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,04</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>68,09%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48,65%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>67,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>112,17%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>48,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>13,04; 18,97</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 15,03</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 12,33</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>5,72; 8,83</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15,83; 40,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 12,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 15,03</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>52,11; 88,57</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23,72; 57,45</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34,27; 62,53</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>49,51; 88,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>66,85; 255,51</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>34,27; 62,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 57,45</t>
         </is>
       </c>
     </row>
